--- a/500all/speech_level/speeches_CHRG-114hhrg20875.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20875.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412655</t>
   </si>
   <si>
-    <t>Brian Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Babin. Good afternoon. The Subcommittee on Space will now come to order.    And without objection, the Chair is authorized to declare recesses of the Subcommittee at any time.    Welcome to today's hearing titled ``The Next Steps to Mars: Deep Space Habitats.'' I recognize myself for five minutes for an opening statement.    The exploration of space, particularly human exploration of Mars, has intrigued generations around the world. Our sister planet holds many mysteries, and quite possibly, the keys to our past and our future. The profound goal of putting humans on Mars and perhaps establishing a settlement there, fuels our desire to push the boundaries of what is possible and to reach far beyond our own planet.    Space exploration is in our DNA. Americans of all ages watched on their black and white TVs as Neil Armstrong stepped onto the surface of the Moon. Our collective interests have not waned since that time. However, we now watch in full color and high definition as we launch off our planet, land a rover on Mars, and see our astronauts on the International Space Station do an EVA to assemble an orbital space laboratory enabled by the unwavering dedication and hard work of countless thousands who have contributed to the historical successes and immeasurable benefits spaceflight and exploration have brought humanity.    Last year's cinematic blockbuster, The Martian, based on the book written by Andy Weir, one of our witnesses today, wrote about the challenges an astronaut faced in order to survive the hostile environment of Mars faced with much hostility. This concept is directly related to the topic of our hearing: examining the challenges and discussing what it is going to take to turn this science fiction into a reality as we hope to do in the years ahead.    One of the foremost requirements for success in such a profound endeavor is the support of Congress, and undoubtedly, bipartisan, bicameral support is strongly behind this goal. In fact, bipartisan support for our spaceflight and exploration programs is so strong that the 2016 NASA Authorization Act passed the House by a unanimous voice vote. In this turbulent political climate, a vote like that is very exceptional for any agency. The House's intent is clear, and I strongly urge our colleagues in the Senate to join us by taking up and passing a NASA Authorization bill this year. Doing so, in this election year, is particularly important as it will provide NASA programs the stability that they need through the uncertainty that results during the transition of Presidential Administrations.    One of the most critical capabilities needed to sustain humans for a journey to Mars is a habitat. Without a viable habitat to protect our astronauts from the inhospitable environment of space, we cannot achieve our goals for human deep space exploration.    Congress demonstrated its very strong support of space exploration last year in passing the most significant update to commercial space law in decades and also by providing robust and increased funding levels for NASA exploration programs.    In the 2016 appropriations, Congress directed NASA to invest no less than $55 million for the development of a habitation augmentation module to maximize the potential of the SLS/Orion architecture in deep space and to develop a prototype module no later than 2018.    Astronaut Scott Kelly's nearly year-long mission aboard the International Space Station has provided substantial scientific data which we continue to assess, related to the physiological and psychological impacts humans face during long-duration space missions. However, much research still needs to be done to develop systems and operations to mitigate these impacts for sustaining crew health, and for this reason, it is critical that the ISS be fully utilized through 2024.    We know what goal we want to achieve: putting humans on Mars. What continues to be unclear is the detailed plan. How are we going to accomplish this bold and challenging goal? What are the requisite precursor missions, the technologies, sustaining systems, and habitation requirements and current capabilities? Until this detailed plan is outlined, there are many unknowns but what we do know is that NASA will need habitation and there are many questions that surround this requirement. How will NASA acquire habitation? How will development be funded? Will NASA develop the capability by contracting with a company on a cost-plus basis as it did for the programs in the past? Or will they seek to procure habitation as a service by leveraging previous development work? Will NASA use public-private partnerships? And if so, how will NASA divide the investment? How will it treat the intellectual property? And will the taxpayer get a deal on the price if it contributes to the development?    We have tremendous lessons learned related to systems development along with the pros and cons of various acquisition approaches. Regardless of the ultimate decision, the acquisition parameters and requirements must be clear before any action is taken. NASA simply doesn't have the time or the budget to experiment on unproven acquisition models. It's long past time to apply the lessons learned and make the decision based on what is the most assured and efficient way for NASA to acquire this capability.    Whatever NASA proposes, I sincerely hope it will be in the best interests of our American taxpayers. It would be a shame if we repeat the mistakes of the past: government paying for the development of habitation capabilities, and then turn around and pays again to procure the service from the same provider. NASA's decisions on ``make'' or ``buy'' will be critical.    Is it possible that industry may be able to provide turnkey cost-effective services that are developed with minimal taxpayer support? Is there a market for low-Earth orbit habitats, sufficient to support a post-ISS paradigm, which can be leveraged for deep space habit requirements?    We are an exceptional nation of doers, and as we forge a path through the high ground of space on our journey to Mars, I have strong faith in the ingenuity of American scientists, engineers, and the entire industry to address the challenges posed by deep space exploration and to develop the spaceflight systems needed to reach our goals in a safe, sustainable and affordable way.    I'm pleased to welcome our witnesses, and I look forward to hearing their perspectives as to how NASA should consider acquiring habitation goods and services to meet future mission requirements, and thank you all for participating.    And Mr. Weir, I'd like to personally thank you for your captivating work, The Martian. It has everyone talking about Mars, which I believe brings us one step closer to making science fiction, science fact. Thank you.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412263</t>
   </si>
   <si>
-    <t>Donna F. Edwards</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Edwards. Thank you very much, Mr. Chairman, and thank you very much for holding this hearing today on the ``Next Steps to Mars: Deep Space Habitats.'' Our Committee and Subcommittee have actively been examining aspects of the humans-to-Mars goal as well as how to implement it, and I'm looking forward to continuing the discussion this afternoon.    I too would like to welcome our distinguished panel of witnesses. It's a rare opportunity to have NASA, industry leaders, and a best-selling author together to discuss the opportunities and challenges involved in sending humans to Mars. I would also note that in our audience today are many representatives I see from the industry as well, and so I think this is an important time for us to really get on the same page about next directions.    And the fact that we will discuss today one of the critical elements that's needed to send humans to Mars, habitats, reflects the current situation that achieving the humans-to-Mars goal is no longer a question of ``if'' but rather a question of ``when.'' The ``when'' will, in part, depend on public support, and so I'm glad that Mr. Weir is here as well today to provide his perspectives on how popular media, such as books, movies, and television can help further public support for the goal of sending humans to Mars.    Other questions we need to address; however, are, of course, how do we get there and what do we need to be working on now in technology development, research, and mission demonstrations if we are to achieve that goal?    This afternoon's hearing will focus on the habitats and habitat systems needed to protect a crew from the harshness of space during deep space missions. Habitats will need systems to provide clean air, water recovery, climate monitoring and control, and a means for food production. They'll also need to provide for fire safety within a closed environment, crew exercise, onboard medical services, and the ability to provide safe haven from solar particle storms and cosmic galactic rays that pose risks to crew health and mission operations. So I'm anxious to hear from our panelists about the concepts for addressing these challenges and the status of work to date on habitation systems.    Finally, getting humans to Mars will require much more than overcoming the technical challenges of developing habitation systems. It will require national commitment, sustained support, and resources over multiple decades. Public excitement, anticipation and engagement in sending humans to Mars will also play an important role in determining the extent to which the Nation prioritizes this as a goal.    So I'm pleased, Mr. Chairman, that we also have the opportunity today to discuss how we can stimulate and leverage public engagement in the goal of sending humans to Mars. And I would also say that I share the goal of trying to complete in this interim period a longer-term authorization for the agency to set on a path, a direction forward, particularly with respect to getting humans to Mars and the support of that goal so that in fact we can make the kind of appropriate transition from one Administration to the next that doesn't require us to start from square one. And so I look forward in these next several months to doing exactly that.    And lastly, I'd like to thank again our witnesses for being here, and I truly do look forward to your testimony.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman, and I too appreciate our witnesses who are here today as well as the many stakeholders who are represented in the audience as well. It's nice to see a full room.    I also want to single out a gentleman sitting in the front row to my right and compliment him on his tee shirt that says ``Occupy Mars.'' I won't ask any more questions right now but we'll talk later.    Our hearing covers a critical aspect of our Nation's future journey to Mars: how our astronauts will live and work during their journey, and I'm glad that best-selling author Andy Weir has agreed to join us today. His book, The Martian, along with the movie by the same name, ignited the world's imagination. It brought to life an adventure that we can envision in the not-too-distant future: journeys to Mars with heroic astronauts putting themselves to the test of overcoming dangers with ingenuity and courage.    I wrote an op-ed with our colleague, Ed Perlmutter, two months ago that I would like to submit for the record without objection, Mr. Chairman.    [The information appears in Appendix II]</t>
   </si>
   <si>
@@ -94,36 +85,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Crusan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Crusan. Mr. Chairman and Members of the Subcommittee, thank you for this opportunity to appear before you today to discuss NASA's plans for development of habitation capabilities for the post-International Space Station era.    As you know, the agency plans to continue ISS operations and utilization through at least 2024. ISS and its successor capabilities are essential to conducting research on human health and performance, testing and demonstration of technologies critical for deep space missions, and expanding our knowledge of space. These activities comprise our Earth-reliant portion of our journey to Mars.    The Space Launch System and Orion crew vehicle now well under development will carry us into the proving ground of cislunar space where our primary goal for human spaceflight is to develop the crew capabilities necessary for long duration transit missions to and from Mars.    The next human exploration capabilities needed beyond SLS and Orion are deep space long-duration habitation and in-space propulsion.    Missions in the proving ground will simulate and test Mars transit systems and operations through limited interaction with Mission Control, limited cargo supply with no crew exchanges, and will culminate with a long-duration crew validation expedition within cislunar space or beyond by the end of the 2020s.    NASA is also actively working on low-Earth transition strategies for the post-ISS era as well and is encouraging the private sector to foster both commercial demand and supply for LEO services. This will allow NASA to focus its resources on the agency's primary goal to expand human presence into the solar system and to Mars consistent with Presidential and Congressional direction.    ISS operations and LEO constitute a foundation for such expansion by performing key research and technology developments required for long-duration deep space missions. In addition to this ISS testing, NASA needs to begin operating at greater distances from Earth to perform deep space testing along with continuing to enable the transition of LEO to private platforms and capabilities.    There are a number of common capabilities that NASA and our partners must develop over the next five to ten years including habitation that we're here to discuss today. Such a capability is the foundation of human spaceflight missions beyond LEO supporting our plans for Mars-class missions of distance and duration.    An effective habitation capability comprises a pressurized volume plus an integrated array of complex systems and components that include docking capabilities, environmental control and life support systems, logistics management, radiation mitigation and monitoring, fire safety technologies, and crew health capabilities.    To support development of habitation capabilities, NASA is leveraging information gathered through its Next Space Technologies for Exploration Partnership, or NextSTEP, broad agency announcements. NextSTEP is a public-private partnership model that seeks commercial development approaches to long-duration deep space capabilities. In NextSTEP phase I, NASA selected 12 awards including seven in the area of habitation. The NextSTEP phase I contractors are performing advanced concept studies and technology development projects. In April of 2016 this year, the agency issued NextSTEP phase II, which is specifically addressing and focusing on the development of long-duration deep space habitation concepts that will result in prototype units. NASA plans to select multiple proposals under this solicitation in August of 2016, this year. And the agency intends to integrate functional systems into our prototype habitat for ground testing in 2018.    Through the NextSTEP effort, NASA and industry are identifying commercial capability developments for LEO that intersect with the agency's long-duration deep space habitation requirements along with any potential options to leverage these identified commercial advances toward meeting NASA's exploration needs while promoting commercial activity in LEO.    NextSTEP is a key aspect of informing the agency's acquisition strategy for its deep space long-duration habitation capability along with any considerations of international partner participation. It is NASA's intent that LEO eventually support private platforms and capabilities enabled by commercial markets, academia, and government agencies with an interest in LEO research and activities while the agency's primary human spaceflight focus shifts towards deep space beyond LEO. Private enterprise and affordable commercial operations in LEO will enable a sustainable step in our expansion into space. A robust, vibrant commercial enterprise with many providers and a wide range of private and public users will enable U.S. industry to support other government and commercial users safely, reliably and affordably.    Mr. Chairman, I would be happy to respond to any questions you or the other members of the Committee may have. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you, Mr. Crusan.    I now recognize Mr. Elbon for five minutes to present his testimony.</t>
   </si>
   <si>
-    <t>Elbon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Elbon. Thank you, Chairman Babin, Ranking Member Edwards, Chairman Smith, members of the Committee. On behalf of the Boeing Company, thank you for the opportunity to testify today.    Our Nation is on a journey to put humans on Mars. Sometimes I think those words roll off our tongue too easily. I'm trained as an engineer, and I often don't feel I have the capability to articulate with the enthusiasm and awe that those words deserve.    If you know where to look in the sky, you can find Mars, and it's a small dot. When you're there and looking back, Earth will be a small dot, and we're going there. This is an incredible feat.    Our longest missions to date have been around a year. The mission to Mars will be at least three years long. The largest payload we've landed on Mars to date is just under a ton. To put humans on the surface of Mars, we'll need to be able to land 20 to 30 tons.    We've traveled to low-Earth orbit and to the Moon, where communications delays are up to three seconds. On the journey to Mars, communication delays will be over 40 minutes. And when the Mars and the Earth are on opposite sides of the sun, there will be a blackout for a period of two weeks. We must learn to operate in space without constant monitoring and control capability from the ground.    These challenges are difficult, but solving difficult challenges is what our Nation's human spaceflight is focused on since its inception.    The key to meeting these challenges is to attack them in phases, first by developing the necessary technologies close to home in low-Earth orbit aboard the International Space Station. Second, by developing systems based on these technologies and validating them in a proving ground in the area around the Moon. We refer to this area as cislunar. And then once these systems are proven safe and reliable, using them to accomplish our greatest achievement as humans to date: putting humans on Mars.    We're making great progress through our work aboard the International Space Station. In addition to breakthrough scientific discoveries on ISS, we're learning to live for long periods of time in space and developing reliable systems such as life support systems that are necessary. This work needs to continue for the next decade or so when we will be well underway on the next step.    The next step, of course, is to put a habitat, an outpost, if you will, in the vicinity of the Moon. This habitat will not only support validation of the capabilities we need to make the long journey to Mars but can also enable private industry or international partners to descend to the lunar surface. Asteroids could be returned to that outpost for scientific investigation, perhaps mining. Commercial resupply vehicles can be contracted for logistic support. And telerobotic exploration of the far side of the Moon can be conducted from this outpost.    The primary objective of taking the next step to cislunar is to validate we're ready to go to Mars, but being there will enable a whole suite of exciting activities.    There is currently an ongoing dialog around the model that ought to be used for the procurement of this habitation capability. Habitation developed for use in cislunar will be expanded for use during the journey to Mars and could also be used at least in part for a low-Earth orbit vehicle after retirement of the International Space Station.    As the leader of programs operating under both public-private partnerships such as Commercial Crew and cost-plus development contracts such as International Space Station and the Space Launch System, I've seen the advantages and challenges of both models. I look forward to discussing these as well as diving deeper into why cislunar is the next-step destination during our discussion today.    I'll close by asking you to consider this: somewhere in the world is a student about 10 to 20 years old, probably studying math or science, and that student will be the first person to set foot on Mars. In my view, that's amazing to think about.    Thank you very much, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you, Mr. Elbon.    And I now recognize Ms. Sigur for five minutes to present her testimony.</t>
   </si>
   <si>
-    <t>Sigur</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Sigur. Chairman Babin, Ranking Member Edwards, and Members of the Committee, I'm pleased to have the opportunity to talk with you today about the next steps to Mars.    The technologies we're building today will enable human exploration of deep space. I actually have a few slides.    [Slide.]    So this slide shows the Orion crew module. It is actually the module that we're going to use on the next exploration mission, Exploration Mission-1, to fly in 2018, and what you see here is the crew module being put into the test fixtures for the proof test. I'm pleased to say that over the last few weeks, completed the proof test. Everything passed extremely well, and not only the folks that helped build it but the analysts excited about the performance that we see.    The vehicle is different. It's a vehicle that's been designed for deep space exploration from the beginning. And what's different, of course, is that deep space is so very different from low-Earth orbit. The requirements are much more severe, and as Mr. Elbon mentioned, the focus has to be for a much longer tenure.    This is a thousand-day-plus spacecraft. The capabilities include radiation-hardened command and control systems. It provides a radiation storm shelter. There's redundancy. Recognizing how far away we are from Earth, there needs to be redundancy in propulsion systems, computers, engines and other systems. It's got an amazing computing capability. It's got what we call time-triggered ethernet that's 10 times faster than your internet at home, which is going to be required for passing files, for passing videos and information. It's got a life support system. The life support system accommodates exercise and it accommodates all those things necessary for those long missions. It's got a thermal protection system that not only accommodates the extremely cold environments of deep space but allows for safe landing whether the mission was to the Moon or Mars. So we feel that the future of the Orion spacecraft is a strong one.    I don't know how many of you remember EFT-1. That was the exploration flight test of the Orion vehicle, the very first one in 2014. We learned so much from that flight, and we are building on that success. This vehicle that you see here is 4,000 pounds lighter to accommodate the life support systems. And so with a focus on performance, affordability, recognizing that every dollar matters, we've taken a view on what technologies are necessary to allow us to lean into the future. Let's go to the next slide, please.    [Slide.]    This is not something that's new for us. Lockheed Martin has had the great privilege of being involved on every mission to the planet Mars, and as you look at the progression of a dozen-plus different missions, you'll see that we've been able to leverage the smarts of the structures, of the computing systems to provide an affordable solution to the very hard challenges that we see. Next slide, please.    [Slide.]    So that concept of building on performance and capability is one that we've leveraged into our system or habitats. In order to minimize costs and maximize crew safety, we have an inclusive view of our architectures to say wouldn't it be great if we could take advantage of all those capabilities that are inherent in the Orion system and find ways to produce a lower-cost solution. In support of NASA's NextSTEP study, we've designed a deep space habitat that does that. It leverages that investment in Orion. Next slide.    [Slide.]    Now, this is a great day. This is the day when you see the Orion and the NextSTEP habitat relying on each other's systems in order to assure overall success.    But there's more. Next slide, please.    [Slide.]    We're not stopping at habitats. By leaning forward in accommodating what tasks have to be accomplished in the schedule that's head of us, you see that leaning forward in closing on those milestones will allow us to explore NASA's vision faster. We call this Mars Base Camp.    The concept is simple: transport astronauts from Earth to a Mars orbiting science laboratory where they can perform real-time science exploration, analyze the first Martian rock, make real-time decisions while they're at the planet.    Mars is closer than you think, and we're very much interested in accelerating the journey.    Thank you. I will be happy to answer any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you, Ms. Sigur.    I now recognize Mr. Culbertson for five minutes to present his testimony.</t>
   </si>
   <si>
-    <t>Culbertson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Culbertson. Thank you, sir. Do we have time with the--</t>
   </si>
   <si>
@@ -136,9 +115,6 @@
     <t xml:space="preserve">    Chairman Babin. Thank you, Mr. Culbertson.    Mr. Weir, I am deeply apologetic but I've just been told most of our members have already run to vote. They've already called for votes. If you don't mind, we'll come back as soon as the voting is over and reconvene. Is that okay with you?</t>
   </si>
   <si>
-    <t>Weir</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weir. Sure, that works for me.</t>
   </si>
   <si>
@@ -226,9 +202,6 @@
     <t>412395</t>
   </si>
   <si>
-    <t>Mo Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brooks. Thank you, Mr. Chairman.    While I support development of American-made alternatives to the RD-180 rocket engine, according to Undersecretary of Defense for Acquisition, Technology and Logistics, Frank Kendall, ending the use of the RD-180 prior to the availability of a comparable domestic rocket engine will cost taxpayers over a billion dollars. What effect will restrictions on the purchase of RD-180 engines have on NASA and Boeing's CST-100 Starliner commercial crew space system? And my question is directed to Mr. Elbon.</t>
   </si>
   <si>
@@ -250,9 +223,6 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman.    This past weekend, the students of Longfellow Middle School in my district participated in the Aerospace Industry Association 2016 Team America Rocketry Challenge, and they are with us here today. So they'll stand up and we'll recognize you. Thank you for competing and for your excellence in math and engineering and technology and science.    And Mr. Weir, of all the protagonists I've run into in my life, Mark Watney was easily the most adaptable and creative I've ever seen. You know, he's a great role model, confronting life-and-death challenges daily and somehow doing it with good cheer, with humor, and moving forward with extraordinary resilience. They say every first novel is autobiographical. Who was your role model for Mark Watney?</t>
   </si>
   <si>
@@ -316,9 +286,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Pardon me for being in and out. That's the way we are in Congress sometimes. We've got 10 things to do at one time.    And let me just note right off the bat that we seem to be having dual movies here. It's, you know, the Martian versus Gravity or something like that, you know, because in fact, there as a movie, Gravity, and this is what I'd like to ask Mr. Weir. Okay, I take it that you saw the movie Gravity as well?</t>
   </si>
   <si>
@@ -374,9 +341,6 @@
   </si>
   <si>
     <t>412567</t>
-  </si>
-  <si>
-    <t>Jim Bridenstine</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bridenstine. I approve.</t>
@@ -928,11 +892,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -954,11 +916,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -978,13 +938,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1006,11 +964,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1030,13 +986,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1056,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1084,11 +1036,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1110,11 +1060,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1134,13 +1082,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1162,11 +1108,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1186,13 +1130,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1214,11 +1156,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1238,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1266,11 +1204,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1290,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1318,11 +1252,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1342,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1370,11 +1300,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1394,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1422,11 +1348,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1446,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>35</v>
-      </c>
-      <c r="H22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1474,11 +1396,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1500,11 +1420,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1524,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1552,11 +1468,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1576,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1604,11 +1516,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1628,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1656,11 +1564,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1680,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1708,11 +1612,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1732,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1760,11 +1660,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1784,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1812,11 +1708,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1836,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1862,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1888,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1914,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1940,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1966,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1992,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2020,11 +1900,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2044,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2070,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2098,11 +1972,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2122,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
-      </c>
-      <c r="G48" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2148,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2174,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2200,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2226,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2254,11 +2116,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2278,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2304,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2330,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
-      </c>
-      <c r="G56" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2356,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2382,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
-      </c>
-      <c r="G58" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2408,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2434,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
-      </c>
-      <c r="G60" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2460,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2486,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
         <v>77</v>
-      </c>
-      <c r="G62" t="s">
-        <v>78</v>
-      </c>
-      <c r="H62" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2512,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2538,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2564,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2590,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2616,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2642,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2668,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2694,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G70" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2720,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2746,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>77</v>
-      </c>
-      <c r="G72" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2774,11 +2596,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2798,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
-      </c>
-      <c r="G74" t="s">
-        <v>100</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2824,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2850,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>99</v>
-      </c>
-      <c r="G76" t="s">
-        <v>100</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2876,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2902,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>99</v>
-      </c>
-      <c r="G78" t="s">
-        <v>100</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2928,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G79" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2954,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>99</v>
-      </c>
-      <c r="G80" t="s">
-        <v>100</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2980,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3006,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>99</v>
-      </c>
-      <c r="G82" t="s">
-        <v>100</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3032,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3058,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>99</v>
-      </c>
-      <c r="G84" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
         <v>100</v>
-      </c>
-      <c r="H84" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3084,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3110,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>99</v>
-      </c>
-      <c r="G86" t="s">
-        <v>100</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3136,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
-      </c>
-      <c r="G87" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3162,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>99</v>
-      </c>
-      <c r="G88" t="s">
-        <v>100</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3188,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3214,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>99</v>
-      </c>
-      <c r="G90" t="s">
-        <v>100</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3242,11 +3028,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3266,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>119</v>
-      </c>
-      <c r="G92" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3294,11 +3076,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3318,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>119</v>
-      </c>
-      <c r="G94" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3344,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3370,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>119</v>
-      </c>
-      <c r="G96" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3396,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3422,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>119</v>
-      </c>
-      <c r="G98" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3448,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3474,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>119</v>
-      </c>
-      <c r="G100" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3500,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>25</v>
-      </c>
-      <c r="G101" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3526,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>119</v>
-      </c>
-      <c r="G102" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3552,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>25</v>
-      </c>
-      <c r="G103" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3578,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>119</v>
-      </c>
-      <c r="G104" t="s">
+        <v>108</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
         <v>120</v>
-      </c>
-      <c r="H104" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3604,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
-      </c>
-      <c r="G105" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3630,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>119</v>
-      </c>
-      <c r="G106" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3658,11 +3412,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3682,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3710,11 +3460,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3734,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3762,11 +3508,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3786,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3814,11 +3556,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3838,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>25</v>
-      </c>
-      <c r="G114" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3866,11 +3604,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3890,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G116" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3918,11 +3652,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3942,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
-      </c>
-      <c r="G118" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3968,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
-      </c>
-      <c r="G119" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3994,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4020,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>25</v>
-      </c>
-      <c r="G121" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4046,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4072,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>25</v>
-      </c>
-      <c r="G123" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4098,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
-      </c>
-      <c r="G124" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4126,11 +3844,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4150,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>119</v>
-      </c>
-      <c r="G126" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4176,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>25</v>
-      </c>
-      <c r="G127" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4202,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>119</v>
-      </c>
-      <c r="G128" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4228,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>25</v>
-      </c>
-      <c r="G129" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4254,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>119</v>
-      </c>
-      <c r="G130" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4280,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>25</v>
-      </c>
-      <c r="G131" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4306,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>119</v>
-      </c>
-      <c r="G132" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4334,11 +4036,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4358,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>77</v>
-      </c>
-      <c r="G134" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4384,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>25</v>
-      </c>
-      <c r="G135" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4410,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>77</v>
-      </c>
-      <c r="G136" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4436,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>25</v>
-      </c>
-      <c r="G137" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4462,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>77</v>
-      </c>
-      <c r="G138" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4488,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>25</v>
-      </c>
-      <c r="G139" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4514,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>77</v>
-      </c>
-      <c r="G140" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4540,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>25</v>
-      </c>
-      <c r="G141" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4566,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>77</v>
-      </c>
-      <c r="G142" t="s">
-        <v>78</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4592,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>25</v>
-      </c>
-      <c r="G143" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4620,11 +4300,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20875.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20875.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412655</t>
   </si>
   <si>
+    <t>Babin</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Babin. Good afternoon. The Subcommittee on Space will now come to order.    And without objection, the Chair is authorized to declare recesses of the Subcommittee at any time.    Welcome to today's hearing titled ``The Next Steps to Mars: Deep Space Habitats.'' I recognize myself for five minutes for an opening statement.    The exploration of space, particularly human exploration of Mars, has intrigued generations around the world. Our sister planet holds many mysteries, and quite possibly, the keys to our past and our future. The profound goal of putting humans on Mars and perhaps establishing a settlement there, fuels our desire to push the boundaries of what is possible and to reach far beyond our own planet.    Space exploration is in our DNA. Americans of all ages watched on their black and white TVs as Neil Armstrong stepped onto the surface of the Moon. Our collective interests have not waned since that time. However, we now watch in full color and high definition as we launch off our planet, land a rover on Mars, and see our astronauts on the International Space Station do an EVA to assemble an orbital space laboratory enabled by the unwavering dedication and hard work of countless thousands who have contributed to the historical successes and immeasurable benefits spaceflight and exploration have brought humanity.    Last year's cinematic blockbuster, The Martian, based on the book written by Andy Weir, one of our witnesses today, wrote about the challenges an astronaut faced in order to survive the hostile environment of Mars faced with much hostility. This concept is directly related to the topic of our hearing: examining the challenges and discussing what it is going to take to turn this science fiction into a reality as we hope to do in the years ahead.    One of the foremost requirements for success in such a profound endeavor is the support of Congress, and undoubtedly, bipartisan, bicameral support is strongly behind this goal. In fact, bipartisan support for our spaceflight and exploration programs is so strong that the 2016 NASA Authorization Act passed the House by a unanimous voice vote. In this turbulent political climate, a vote like that is very exceptional for any agency. The House's intent is clear, and I strongly urge our colleagues in the Senate to join us by taking up and passing a NASA Authorization bill this year. Doing so, in this election year, is particularly important as it will provide NASA programs the stability that they need through the uncertainty that results during the transition of Presidential Administrations.    One of the most critical capabilities needed to sustain humans for a journey to Mars is a habitat. Without a viable habitat to protect our astronauts from the inhospitable environment of space, we cannot achieve our goals for human deep space exploration.    Congress demonstrated its very strong support of space exploration last year in passing the most significant update to commercial space law in decades and also by providing robust and increased funding levels for NASA exploration programs.    In the 2016 appropriations, Congress directed NASA to invest no less than $55 million for the development of a habitation augmentation module to maximize the potential of the SLS/Orion architecture in deep space and to develop a prototype module no later than 2018.    Astronaut Scott Kelly's nearly year-long mission aboard the International Space Station has provided substantial scientific data which we continue to assess, related to the physiological and psychological impacts humans face during long-duration space missions. However, much research still needs to be done to develop systems and operations to mitigate these impacts for sustaining crew health, and for this reason, it is critical that the ISS be fully utilized through 2024.    We know what goal we want to achieve: putting humans on Mars. What continues to be unclear is the detailed plan. How are we going to accomplish this bold and challenging goal? What are the requisite precursor missions, the technologies, sustaining systems, and habitation requirements and current capabilities? Until this detailed plan is outlined, there are many unknowns but what we do know is that NASA will need habitation and there are many questions that surround this requirement. How will NASA acquire habitation? How will development be funded? Will NASA develop the capability by contracting with a company on a cost-plus basis as it did for the programs in the past? Or will they seek to procure habitation as a service by leveraging previous development work? Will NASA use public-private partnerships? And if so, how will NASA divide the investment? How will it treat the intellectual property? And will the taxpayer get a deal on the price if it contributes to the development?    We have tremendous lessons learned related to systems development along with the pros and cons of various acquisition approaches. Regardless of the ultimate decision, the acquisition parameters and requirements must be clear before any action is taken. NASA simply doesn't have the time or the budget to experiment on unproven acquisition models. It's long past time to apply the lessons learned and make the decision based on what is the most assured and efficient way for NASA to acquire this capability.    Whatever NASA proposes, I sincerely hope it will be in the best interests of our American taxpayers. It would be a shame if we repeat the mistakes of the past: government paying for the development of habitation capabilities, and then turn around and pays again to procure the service from the same provider. NASA's decisions on ``make'' or ``buy'' will be critical.    Is it possible that industry may be able to provide turnkey cost-effective services that are developed with minimal taxpayer support? Is there a market for low-Earth orbit habitats, sufficient to support a post-ISS paradigm, which can be leveraged for deep space habit requirements?    We are an exceptional nation of doers, and as we forge a path through the high ground of space on our journey to Mars, I have strong faith in the ingenuity of American scientists, engineers, and the entire industry to address the challenges posed by deep space exploration and to develop the spaceflight systems needed to reach our goals in a safe, sustainable and affordable way.    I'm pleased to welcome our witnesses, and I look forward to hearing their perspectives as to how NASA should consider acquiring habitation goods and services to meet future mission requirements, and thank you all for participating.    And Mr. Weir, I'd like to personally thank you for your captivating work, The Martian. It has everyone talking about Mars, which I believe brings us one step closer to making science fiction, science fact. Thank you.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412263</t>
   </si>
   <si>
+    <t>Edwards</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Edwards. Thank you very much, Mr. Chairman, and thank you very much for holding this hearing today on the ``Next Steps to Mars: Deep Space Habitats.'' Our Committee and Subcommittee have actively been examining aspects of the humans-to-Mars goal as well as how to implement it, and I'm looking forward to continuing the discussion this afternoon.    I too would like to welcome our distinguished panel of witnesses. It's a rare opportunity to have NASA, industry leaders, and a best-selling author together to discuss the opportunities and challenges involved in sending humans to Mars. I would also note that in our audience today are many representatives I see from the industry as well, and so I think this is an important time for us to really get on the same page about next directions.    And the fact that we will discuss today one of the critical elements that's needed to send humans to Mars, habitats, reflects the current situation that achieving the humans-to-Mars goal is no longer a question of ``if'' but rather a question of ``when.'' The ``when'' will, in part, depend on public support, and so I'm glad that Mr. Weir is here as well today to provide his perspectives on how popular media, such as books, movies, and television can help further public support for the goal of sending humans to Mars.    Other questions we need to address; however, are, of course, how do we get there and what do we need to be working on now in technology development, research, and mission demonstrations if we are to achieve that goal?    This afternoon's hearing will focus on the habitats and habitat systems needed to protect a crew from the harshness of space during deep space missions. Habitats will need systems to provide clean air, water recovery, climate monitoring and control, and a means for food production. They'll also need to provide for fire safety within a closed environment, crew exercise, onboard medical services, and the ability to provide safe haven from solar particle storms and cosmic galactic rays that pose risks to crew health and mission operations. So I'm anxious to hear from our panelists about the concepts for addressing these challenges and the status of work to date on habitation systems.    Finally, getting humans to Mars will require much more than overcoming the technical challenges of developing habitation systems. It will require national commitment, sustained support, and resources over multiple decades. Public excitement, anticipation and engagement in sending humans to Mars will also play an important role in determining the extent to which the Nation prioritizes this as a goal.    So I'm pleased, Mr. Chairman, that we also have the opportunity today to discuss how we can stimulate and leverage public engagement in the goal of sending humans to Mars. And I would also say that I share the goal of trying to complete in this interim period a longer-term authorization for the agency to set on a path, a direction forward, particularly with respect to getting humans to Mars and the support of that goal so that in fact we can make the kind of appropriate transition from one Administration to the next that doesn't require us to start from square one. And so I look forward in these next several months to doing exactly that.    And lastly, I'd like to thank again our witnesses for being here, and I truly do look forward to your testimony.    Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman, and I too appreciate our witnesses who are here today as well as the many stakeholders who are represented in the audience as well. It's nice to see a full room.    I also want to single out a gentleman sitting in the front row to my right and compliment him on his tee shirt that says ``Occupy Mars.'' I won't ask any more questions right now but we'll talk later.    Our hearing covers a critical aspect of our Nation's future journey to Mars: how our astronauts will live and work during their journey, and I'm glad that best-selling author Andy Weir has agreed to join us today. His book, The Martian, along with the movie by the same name, ignited the world's imagination. It brought to life an adventure that we can envision in the not-too-distant future: journeys to Mars with heroic astronauts putting themselves to the test of overcoming dangers with ingenuity and courage.    I wrote an op-ed with our colleague, Ed Perlmutter, two months ago that I would like to submit for the record without objection, Mr. Chairman.    [The information appears in Appendix II]</t>
   </si>
   <si>
@@ -85,24 +106,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Crusan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Crusan. Mr. Chairman and Members of the Subcommittee, thank you for this opportunity to appear before you today to discuss NASA's plans for development of habitation capabilities for the post-International Space Station era.    As you know, the agency plans to continue ISS operations and utilization through at least 2024. ISS and its successor capabilities are essential to conducting research on human health and performance, testing and demonstration of technologies critical for deep space missions, and expanding our knowledge of space. These activities comprise our Earth-reliant portion of our journey to Mars.    The Space Launch System and Orion crew vehicle now well under development will carry us into the proving ground of cislunar space where our primary goal for human spaceflight is to develop the crew capabilities necessary for long duration transit missions to and from Mars.    The next human exploration capabilities needed beyond SLS and Orion are deep space long-duration habitation and in-space propulsion.    Missions in the proving ground will simulate and test Mars transit systems and operations through limited interaction with Mission Control, limited cargo supply with no crew exchanges, and will culminate with a long-duration crew validation expedition within cislunar space or beyond by the end of the 2020s.    NASA is also actively working on low-Earth transition strategies for the post-ISS era as well and is encouraging the private sector to foster both commercial demand and supply for LEO services. This will allow NASA to focus its resources on the agency's primary goal to expand human presence into the solar system and to Mars consistent with Presidential and Congressional direction.    ISS operations and LEO constitute a foundation for such expansion by performing key research and technology developments required for long-duration deep space missions. In addition to this ISS testing, NASA needs to begin operating at greater distances from Earth to perform deep space testing along with continuing to enable the transition of LEO to private platforms and capabilities.    There are a number of common capabilities that NASA and our partners must develop over the next five to ten years including habitation that we're here to discuss today. Such a capability is the foundation of human spaceflight missions beyond LEO supporting our plans for Mars-class missions of distance and duration.    An effective habitation capability comprises a pressurized volume plus an integrated array of complex systems and components that include docking capabilities, environmental control and life support systems, logistics management, radiation mitigation and monitoring, fire safety technologies, and crew health capabilities.    To support development of habitation capabilities, NASA is leveraging information gathered through its Next Space Technologies for Exploration Partnership, or NextSTEP, broad agency announcements. NextSTEP is a public-private partnership model that seeks commercial development approaches to long-duration deep space capabilities. In NextSTEP phase I, NASA selected 12 awards including seven in the area of habitation. The NextSTEP phase I contractors are performing advanced concept studies and technology development projects. In April of 2016 this year, the agency issued NextSTEP phase II, which is specifically addressing and focusing on the development of long-duration deep space habitation concepts that will result in prototype units. NASA plans to select multiple proposals under this solicitation in August of 2016, this year. And the agency intends to integrate functional systems into our prototype habitat for ground testing in 2018.    Through the NextSTEP effort, NASA and industry are identifying commercial capability developments for LEO that intersect with the agency's long-duration deep space habitation requirements along with any potential options to leverage these identified commercial advances toward meeting NASA's exploration needs while promoting commercial activity in LEO.    NextSTEP is a key aspect of informing the agency's acquisition strategy for its deep space long-duration habitation capability along with any considerations of international partner participation. It is NASA's intent that LEO eventually support private platforms and capabilities enabled by commercial markets, academia, and government agencies with an interest in LEO research and activities while the agency's primary human spaceflight focus shifts towards deep space beyond LEO. Private enterprise and affordable commercial operations in LEO will enable a sustainable step in our expansion into space. A robust, vibrant commercial enterprise with many providers and a wide range of private and public users will enable U.S. industry to support other government and commercial users safely, reliably and affordably.    Mr. Chairman, I would be happy to respond to any questions you or the other members of the Committee may have. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you, Mr. Crusan.    I now recognize Mr. Elbon for five minutes to present his testimony.</t>
   </si>
   <si>
+    <t>Elbon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Elbon. Thank you, Chairman Babin, Ranking Member Edwards, Chairman Smith, members of the Committee. On behalf of the Boeing Company, thank you for the opportunity to testify today.    Our Nation is on a journey to put humans on Mars. Sometimes I think those words roll off our tongue too easily. I'm trained as an engineer, and I often don't feel I have the capability to articulate with the enthusiasm and awe that those words deserve.    If you know where to look in the sky, you can find Mars, and it's a small dot. When you're there and looking back, Earth will be a small dot, and we're going there. This is an incredible feat.    Our longest missions to date have been around a year. The mission to Mars will be at least three years long. The largest payload we've landed on Mars to date is just under a ton. To put humans on the surface of Mars, we'll need to be able to land 20 to 30 tons.    We've traveled to low-Earth orbit and to the Moon, where communications delays are up to three seconds. On the journey to Mars, communication delays will be over 40 minutes. And when the Mars and the Earth are on opposite sides of the sun, there will be a blackout for a period of two weeks. We must learn to operate in space without constant monitoring and control capability from the ground.    These challenges are difficult, but solving difficult challenges is what our Nation's human spaceflight is focused on since its inception.    The key to meeting these challenges is to attack them in phases, first by developing the necessary technologies close to home in low-Earth orbit aboard the International Space Station. Second, by developing systems based on these technologies and validating them in a proving ground in the area around the Moon. We refer to this area as cislunar. And then once these systems are proven safe and reliable, using them to accomplish our greatest achievement as humans to date: putting humans on Mars.    We're making great progress through our work aboard the International Space Station. In addition to breakthrough scientific discoveries on ISS, we're learning to live for long periods of time in space and developing reliable systems such as life support systems that are necessary. This work needs to continue for the next decade or so when we will be well underway on the next step.    The next step, of course, is to put a habitat, an outpost, if you will, in the vicinity of the Moon. This habitat will not only support validation of the capabilities we need to make the long journey to Mars but can also enable private industry or international partners to descend to the lunar surface. Asteroids could be returned to that outpost for scientific investigation, perhaps mining. Commercial resupply vehicles can be contracted for logistic support. And telerobotic exploration of the far side of the Moon can be conducted from this outpost.    The primary objective of taking the next step to cislunar is to validate we're ready to go to Mars, but being there will enable a whole suite of exciting activities.    There is currently an ongoing dialog around the model that ought to be used for the procurement of this habitation capability. Habitation developed for use in cislunar will be expanded for use during the journey to Mars and could also be used at least in part for a low-Earth orbit vehicle after retirement of the International Space Station.    As the leader of programs operating under both public-private partnerships such as Commercial Crew and cost-plus development contracts such as International Space Station and the Space Launch System, I've seen the advantages and challenges of both models. I look forward to discussing these as well as diving deeper into why cislunar is the next-step destination during our discussion today.    I'll close by asking you to consider this: somewhere in the world is a student about 10 to 20 years old, probably studying math or science, and that student will be the first person to set foot on Mars. In my view, that's amazing to think about.    Thank you very much, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you, Mr. Elbon.    And I now recognize Ms. Sigur for five minutes to present her testimony.</t>
   </si>
   <si>
+    <t>Sigur</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Sigur. Chairman Babin, Ranking Member Edwards, and Members of the Committee, I'm pleased to have the opportunity to talk with you today about the next steps to Mars.    The technologies we're building today will enable human exploration of deep space. I actually have a few slides.    [Slide.]    So this slide shows the Orion crew module. It is actually the module that we're going to use on the next exploration mission, Exploration Mission-1, to fly in 2018, and what you see here is the crew module being put into the test fixtures for the proof test. I'm pleased to say that over the last few weeks, completed the proof test. Everything passed extremely well, and not only the folks that helped build it but the analysts excited about the performance that we see.    The vehicle is different. It's a vehicle that's been designed for deep space exploration from the beginning. And what's different, of course, is that deep space is so very different from low-Earth orbit. The requirements are much more severe, and as Mr. Elbon mentioned, the focus has to be for a much longer tenure.    This is a thousand-day-plus spacecraft. The capabilities include radiation-hardened command and control systems. It provides a radiation storm shelter. There's redundancy. Recognizing how far away we are from Earth, there needs to be redundancy in propulsion systems, computers, engines and other systems. It's got an amazing computing capability. It's got what we call time-triggered ethernet that's 10 times faster than your internet at home, which is going to be required for passing files, for passing videos and information. It's got a life support system. The life support system accommodates exercise and it accommodates all those things necessary for those long missions. It's got a thermal protection system that not only accommodates the extremely cold environments of deep space but allows for safe landing whether the mission was to the Moon or Mars. So we feel that the future of the Orion spacecraft is a strong one.    I don't know how many of you remember EFT-1. That was the exploration flight test of the Orion vehicle, the very first one in 2014. We learned so much from that flight, and we are building on that success. This vehicle that you see here is 4,000 pounds lighter to accommodate the life support systems. And so with a focus on performance, affordability, recognizing that every dollar matters, we've taken a view on what technologies are necessary to allow us to lean into the future. Let's go to the next slide, please.    [Slide.]    This is not something that's new for us. Lockheed Martin has had the great privilege of being involved on every mission to the planet Mars, and as you look at the progression of a dozen-plus different missions, you'll see that we've been able to leverage the smarts of the structures, of the computing systems to provide an affordable solution to the very hard challenges that we see. Next slide, please.    [Slide.]    So that concept of building on performance and capability is one that we've leveraged into our system or habitats. In order to minimize costs and maximize crew safety, we have an inclusive view of our architectures to say wouldn't it be great if we could take advantage of all those capabilities that are inherent in the Orion system and find ways to produce a lower-cost solution. In support of NASA's NextSTEP study, we've designed a deep space habitat that does that. It leverages that investment in Orion. Next slide.    [Slide.]    Now, this is a great day. This is the day when you see the Orion and the NextSTEP habitat relying on each other's systems in order to assure overall success.    But there's more. Next slide, please.    [Slide.]    We're not stopping at habitats. By leaning forward in accommodating what tasks have to be accomplished in the schedule that's head of us, you see that leaning forward in closing on those milestones will allow us to explore NASA's vision faster. We call this Mars Base Camp.    The concept is simple: transport astronauts from Earth to a Mars orbiting science laboratory where they can perform real-time science exploration, analyze the first Martian rock, make real-time decisions while they're at the planet.    Mars is closer than you think, and we're very much interested in accelerating the journey.    Thank you. I will be happy to answer any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you, Ms. Sigur.    I now recognize Mr. Culbertson for five minutes to present his testimony.</t>
   </si>
   <si>
+    <t>Culbertson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Culbertson. Thank you, sir. Do we have time with the--</t>
   </si>
   <si>
@@ -115,6 +148,9 @@
     <t xml:space="preserve">    Chairman Babin. Thank you, Mr. Culbertson.    Mr. Weir, I am deeply apologetic but I've just been told most of our members have already run to vote. They've already called for votes. If you don't mind, we'll come back as soon as the voting is over and reconvene. Is that okay with you?</t>
   </si>
   <si>
+    <t>Weir</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weir. Sure, that works for me.</t>
   </si>
   <si>
@@ -202,6 +238,12 @@
     <t>412395</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brooks. Thank you, Mr. Chairman.    While I support development of American-made alternatives to the RD-180 rocket engine, according to Undersecretary of Defense for Acquisition, Technology and Logistics, Frank Kendall, ending the use of the RD-180 prior to the availability of a comparable domestic rocket engine will cost taxpayers over a billion dollars. What effect will restrictions on the purchase of RD-180 engines have on NASA and Boeing's CST-100 Starliner commercial crew space system? And my question is directed to Mr. Elbon.</t>
   </si>
   <si>
@@ -223,6 +265,12 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman.    This past weekend, the students of Longfellow Middle School in my district participated in the Aerospace Industry Association 2016 Team America Rocketry Challenge, and they are with us here today. So they'll stand up and we'll recognize you. Thank you for competing and for your excellence in math and engineering and technology and science.    And Mr. Weir, of all the protagonists I've run into in my life, Mark Watney was easily the most adaptable and creative I've ever seen. You know, he's a great role model, confronting life-and-death challenges daily and somehow doing it with good cheer, with humor, and moving forward with extraordinary resilience. They say every first novel is autobiographical. Who was your role model for Mark Watney?</t>
   </si>
   <si>
@@ -286,6 +334,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Pardon me for being in and out. That's the way we are in Congress sometimes. We've got 10 things to do at one time.    And let me just note right off the bat that we seem to be having dual movies here. It's, you know, the Martian versus Gravity or something like that, you know, because in fact, there as a movie, Gravity, and this is what I'd like to ask Mr. Weir. Okay, I take it that you saw the movie Gravity as well?</t>
   </si>
   <si>
@@ -341,6 +395,12 @@
   </si>
   <si>
     <t>412567</t>
+  </si>
+  <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
+    <t>Jim</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bridenstine. I approve.</t>
@@ -842,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -850,7 +910,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,3437 +932,4039 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G50" t="s">
+        <v>74</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G52" t="s">
+        <v>74</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G54" t="s">
+        <v>83</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G55" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G56" t="s">
+        <v>83</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G57" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G58" t="s">
+        <v>83</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G62" t="s">
+        <v>83</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G64" t="s">
+        <v>83</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G65" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>68</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G66" t="s">
+        <v>83</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G67" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>68</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G69" t="s">
+        <v>44</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>68</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G70" t="s">
+        <v>83</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G71" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G72" t="s">
+        <v>83</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G74" t="s">
+        <v>106</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G75" t="s">
+        <v>44</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G76" t="s">
+        <v>106</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>89</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G78" t="s">
+        <v>106</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G79" t="s">
+        <v>44</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>89</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G80" t="s">
+        <v>106</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G81" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>89</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G82" t="s">
+        <v>106</v>
+      </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G83" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>89</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G84" t="s">
+        <v>106</v>
+      </c>
       <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G85" t="s">
+        <v>39</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>89</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G86" t="s">
+        <v>106</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G87" t="s">
+        <v>39</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>89</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G88" t="s">
+        <v>106</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G89" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>89</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>105</v>
+      </c>
+      <c r="G90" t="s">
+        <v>106</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>108</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G92" t="s">
+        <v>127</v>
+      </c>
       <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>108</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G94" t="s">
+        <v>127</v>
+      </c>
       <c r="H94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G95" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>108</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G96" t="s">
+        <v>127</v>
+      </c>
       <c r="H96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G97" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>108</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G98" t="s">
+        <v>127</v>
+      </c>
       <c r="H98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G99" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>108</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G100" t="s">
+        <v>127</v>
+      </c>
       <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G101" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>108</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G102" t="s">
+        <v>127</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G103" t="s">
+        <v>30</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>108</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G104" t="s">
+        <v>127</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G105" t="s">
+        <v>30</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>108</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G106" t="s">
+        <v>127</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G108" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G110" t="s">
+        <v>33</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G112" t="s">
+        <v>33</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G114" t="s">
+        <v>44</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G118" t="s">
+        <v>18</v>
+      </c>
       <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G119" t="s">
+        <v>33</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G120" t="s">
+        <v>18</v>
+      </c>
       <c r="H120" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I120" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s">
+        <v>36</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G122" t="s">
+        <v>18</v>
+      </c>
       <c r="H122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G123" t="s">
+        <v>39</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G124" t="s">
+        <v>18</v>
+      </c>
       <c r="H124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
       <c r="H125" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>108</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G126" t="s">
+        <v>127</v>
+      </c>
       <c r="H126" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G127" t="s">
+        <v>30</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>108</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G128" t="s">
+        <v>127</v>
+      </c>
       <c r="H128" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I128" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G129" t="s">
+        <v>30</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>108</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G130" t="s">
+        <v>127</v>
+      </c>
       <c r="H130" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G131" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>108</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G132" t="s">
+        <v>127</v>
+      </c>
       <c r="H132" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
       <c r="H133" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>68</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G134" t="s">
+        <v>83</v>
+      </c>
       <c r="H134" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G135" t="s">
+        <v>36</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>68</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G136" t="s">
+        <v>83</v>
+      </c>
       <c r="H136" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I136" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G137" t="s">
+        <v>39</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>68</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G138" t="s">
+        <v>83</v>
+      </c>
       <c r="H138" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I138" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G139" t="s">
+        <v>33</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>68</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G140" t="s">
+        <v>83</v>
+      </c>
       <c r="H140" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I140" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G141" t="s">
+        <v>33</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>68</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G142" t="s">
+        <v>83</v>
+      </c>
       <c r="H142" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I142" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G143" t="s">
+        <v>44</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>159</v>
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20875.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20875.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412655</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Babin</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412263</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Edwards</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -238,6 +250,9 @@
     <t>412395</t>
   </si>
   <si>
+    <t>Vice Chair</t>
+  </si>
+  <si>
     <t>Brooks</t>
   </si>
   <si>
@@ -263,6 +278,9 @@
   </si>
   <si>
     <t>412657</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Beyer</t>
@@ -902,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,7 +928,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,4036 +953,4352 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>48</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" t="s">
-        <v>44</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>48</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" t="s">
-        <v>30</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" t="s">
-        <v>36</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" t="s">
-        <v>33</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" t="s">
-        <v>44</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>48</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" t="s">
-        <v>44</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" t="s">
-        <v>44</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>48</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G74" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" t="s">
-        <v>44</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>48</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G76" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" t="s">
-        <v>44</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>48</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G78" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" t="s">
-        <v>44</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>48</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G80" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" t="s">
-        <v>44</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>48</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G82" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" t="s">
-        <v>44</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>48</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G84" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J84" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" t="s">
-        <v>39</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>43</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G86" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87" t="s">
-        <v>39</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>43</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G88" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" t="s">
-        <v>30</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G90" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G92" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H92" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I92" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G94" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I94" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J94" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
-      </c>
-      <c r="G95" t="s">
-        <v>30</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G96" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I96" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
-      </c>
-      <c r="G97" t="s">
-        <v>30</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>34</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G98" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I98" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
-      </c>
-      <c r="G99" t="s">
-        <v>30</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>34</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G100" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H100" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I100" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
-      </c>
-      <c r="G101" t="s">
-        <v>30</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>34</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G102" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I102" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G103" t="s">
-        <v>30</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>34</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G104" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I104" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
-      </c>
-      <c r="G105" t="s">
-        <v>30</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>34</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G106" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I106" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
-      </c>
-      <c r="G108" t="s">
-        <v>30</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>34</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
-      </c>
-      <c r="G110" t="s">
-        <v>33</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>37</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
-      </c>
-      <c r="G112" t="s">
-        <v>33</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>37</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
-      </c>
-      <c r="G114" t="s">
-        <v>44</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>48</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
-      </c>
-      <c r="G116" t="s">
-        <v>44</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>48</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G118" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H118" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J118" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
-      </c>
-      <c r="G119" t="s">
-        <v>33</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>37</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G120" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H120" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I120" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J120" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
-      </c>
-      <c r="G121" t="s">
-        <v>36</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>40</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H122" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I122" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
-      </c>
-      <c r="G123" t="s">
-        <v>39</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>43</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G124" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H124" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I124" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J124" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I125" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G126" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H126" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I126" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
-      </c>
-      <c r="G127" t="s">
-        <v>30</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>34</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G128" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H128" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I128" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J128" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
-      </c>
-      <c r="G129" t="s">
-        <v>30</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>34</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G130" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H130" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I130" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J130" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
-      </c>
-      <c r="G131" t="s">
-        <v>30</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>34</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G132" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="H132" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I132" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J132" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I133" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J133" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G134" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H134" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I134" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
-      </c>
-      <c r="G135" t="s">
-        <v>36</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>40</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G136" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H136" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I136" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J136" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
-      </c>
-      <c r="G137" t="s">
-        <v>39</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>43</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G138" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H138" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I138" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J138" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
-      </c>
-      <c r="G139" t="s">
-        <v>33</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>37</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G140" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H140" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I140" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J140" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
-      </c>
-      <c r="G141" t="s">
-        <v>33</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>37</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G142" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H142" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I142" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J142" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
-      </c>
-      <c r="G143" t="s">
-        <v>44</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>48</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>179</v>
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
